--- a/REGULAR/CASUAL-REGULAR FINAL/DOMINGO, RACHEL.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DOMINGO, RACHEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6E280-AE3E-4058-B63F-56811C95029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
   <si>
     <t>PERIOD</t>
   </si>
@@ -511,12 +510,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>8/7,8/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1204,7 +1206,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1221,25 +1223,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1546,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1555,25 +1557,25 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane ySplit="2220" topLeftCell="A383" activePane="bottomLeft"/>
       <selection activeCell="I32" sqref="I32"/>
-      <selection pane="bottomLeft" activeCell="I394" sqref="I394"/>
+      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1596,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1612,7 +1614,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1634,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1640,7 +1642,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1653,7 +1655,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -1670,7 +1672,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1714,7 +1716,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>258.45199999999994</v>
+        <v>259.70199999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1724,12 +1726,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>403.63299999999998</v>
+        <v>404.88299999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>65</v>
       </c>
@@ -1747,7 +1749,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34652</v>
       </c>
@@ -1765,7 +1767,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>34669</v>
       </c>
@@ -1785,7 +1787,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>66</v>
       </c>
@@ -1803,7 +1805,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>34700</v>
       </c>
@@ -1823,7 +1825,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>34731</v>
       </c>
@@ -1843,7 +1845,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>34759</v>
       </c>
@@ -1863,7 +1865,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>34790</v>
       </c>
@@ -1883,7 +1885,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>34820</v>
       </c>
@@ -1905,7 +1907,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>34851</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>34881</v>
       </c>
@@ -1949,7 +1951,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>34912</v>
       </c>
@@ -1969,7 +1971,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34943</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>34973</v>
       </c>
@@ -2009,7 +2011,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>35004</v>
       </c>
@@ -2029,7 +2031,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>35034</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>70</v>
       </c>
@@ -2071,7 +2073,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>35065</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>35096</v>
       </c>
@@ -2117,7 +2119,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>35125</v>
       </c>
@@ -2143,7 +2145,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>35156</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>35186</v>
       </c>
@@ -2183,7 +2185,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>35217</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>35247</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>35278</v>
       </c>
@@ -2243,7 +2245,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>35309</v>
       </c>
@@ -2263,7 +2265,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35339</v>
       </c>
@@ -2285,7 +2287,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35370</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>35400</v>
       </c>
@@ -2329,7 +2331,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>75</v>
@@ -2349,7 +2351,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>76</v>
       </c>
@@ -2367,7 +2369,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>35431</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>35462</v>
       </c>
@@ -2407,7 +2409,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>35490</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>35521</v>
       </c>
@@ -2453,7 +2455,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>35551</v>
       </c>
@@ -2473,7 +2475,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>35582</v>
       </c>
@@ -2493,7 +2495,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>35612</v>
       </c>
@@ -2513,7 +2515,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>35643</v>
       </c>
@@ -2533,7 +2535,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>35674</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>35704</v>
       </c>
@@ -2583,7 +2585,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>35735</v>
       </c>
@@ -2603,7 +2605,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>35765</v>
       </c>
@@ -2623,7 +2625,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>81</v>
       </c>
@@ -2641,7 +2643,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>35796</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>35827</v>
       </c>
@@ -2687,7 +2689,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>35855</v>
       </c>
@@ -2707,7 +2709,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>35886</v>
       </c>
@@ -2727,7 +2729,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>35916</v>
       </c>
@@ -2747,7 +2749,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35947</v>
       </c>
@@ -2771,7 +2773,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>35977</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>36008</v>
       </c>
@@ -2811,7 +2813,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>36039</v>
       </c>
@@ -2831,7 +2833,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>36069</v>
       </c>
@@ -2851,7 +2853,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>36100</v>
       </c>
@@ -2871,7 +2873,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>36130</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>74</v>
@@ -2917,7 +2919,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>85</v>
       </c>
@@ -2935,7 +2937,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>36161</v>
       </c>
@@ -2955,7 +2957,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>36192</v>
       </c>
@@ -2975,7 +2977,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>36220</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>36251</v>
       </c>
@@ -3015,7 +3017,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36281</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>87</v>
@@ -3058,7 +3060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>51</v>
@@ -3077,7 +3079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36312</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>36342</v>
       </c>
@@ -3123,7 +3125,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36373</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>36404</v>
       </c>
@@ -3167,7 +3169,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>36434</v>
       </c>
@@ -3187,7 +3189,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>36465</v>
       </c>
@@ -3207,7 +3209,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>36495</v>
       </c>
@@ -3227,7 +3229,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>92</v>
       </c>
@@ -3245,7 +3247,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>36526</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>36557</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>36586</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>36617</v>
       </c>
@@ -3331,7 +3333,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>36647</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>36678</v>
       </c>
@@ -3371,7 +3373,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>36708</v>
       </c>
@@ -3391,7 +3393,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>36739</v>
       </c>
@@ -3411,7 +3413,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>36770</v>
       </c>
@@ -3431,7 +3433,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>36800</v>
       </c>
@@ -3451,7 +3453,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>36831</v>
       </c>
@@ -3471,7 +3473,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>36861</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>94</v>
       </c>
@@ -3513,7 +3515,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>36892</v>
       </c>
@@ -3533,7 +3535,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>36923</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36951</v>
       </c>
@@ -3579,7 +3581,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>36982</v>
       </c>
@@ -3599,7 +3601,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>37012</v>
       </c>
@@ -3619,7 +3621,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>37043</v>
       </c>
@@ -3639,7 +3641,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37073</v>
       </c>
@@ -3659,7 +3661,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>37104</v>
       </c>
@@ -3679,7 +3681,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>37135</v>
       </c>
@@ -3703,7 +3705,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>37165</v>
       </c>
@@ -3723,7 +3725,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>37196</v>
       </c>
@@ -3743,7 +3745,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37226</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>99</v>
       </c>
@@ -3787,7 +3789,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>37257</v>
       </c>
@@ -3807,7 +3809,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>37288</v>
       </c>
@@ -3827,7 +3829,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>37316</v>
       </c>
@@ -3847,7 +3849,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>37347</v>
       </c>
@@ -3867,7 +3869,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>37377</v>
       </c>
@@ -3887,7 +3889,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37408</v>
       </c>
@@ -3907,7 +3909,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>37438</v>
       </c>
@@ -3927,7 +3929,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37469</v>
       </c>
@@ -3947,7 +3949,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>37500</v>
       </c>
@@ -3967,7 +3969,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>37530</v>
       </c>
@@ -3987,7 +3989,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>37561</v>
       </c>
@@ -4007,7 +4009,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37591</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>101</v>
       </c>
@@ -4051,7 +4053,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>37622</v>
       </c>
@@ -4071,7 +4073,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>37653</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>37681</v>
       </c>
@@ -4111,7 +4113,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>37712</v>
       </c>
@@ -4131,7 +4133,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>37742</v>
       </c>
@@ -4151,7 +4153,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>37773</v>
       </c>
@@ -4171,7 +4173,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>37803</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>37834</v>
       </c>
@@ -4211,7 +4213,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>37865</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>37895</v>
       </c>
@@ -4251,7 +4253,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>37926</v>
       </c>
@@ -4271,7 +4273,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>37956</v>
       </c>
@@ -4295,7 +4297,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>103</v>
       </c>
@@ -4313,7 +4315,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>37987</v>
       </c>
@@ -4333,7 +4335,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>38018</v>
       </c>
@@ -4353,7 +4355,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38047</v>
       </c>
@@ -4373,7 +4375,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>38078</v>
       </c>
@@ -4393,7 +4395,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>38108</v>
       </c>
@@ -4413,7 +4415,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>38139</v>
       </c>
@@ -4433,7 +4435,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>38169</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>38200</v>
       </c>
@@ -4479,7 +4481,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38231</v>
       </c>
@@ -4499,7 +4501,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>38261</v>
       </c>
@@ -4523,7 +4525,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38292</v>
       </c>
@@ -4543,7 +4545,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>38322</v>
       </c>
@@ -4563,7 +4565,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>106</v>
       </c>
@@ -4581,7 +4583,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>38353</v>
       </c>
@@ -4601,7 +4603,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>38384</v>
       </c>
@@ -4621,7 +4623,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>38412</v>
       </c>
@@ -4641,7 +4643,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38443</v>
       </c>
@@ -4661,7 +4663,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>38473</v>
       </c>
@@ -4681,7 +4683,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38504</v>
       </c>
@@ -4701,7 +4703,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38534</v>
       </c>
@@ -4721,7 +4723,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>38565</v>
       </c>
@@ -4741,7 +4743,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>38596</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38626</v>
       </c>
@@ -4787,7 +4789,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38657</v>
       </c>
@@ -4807,7 +4809,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>38687</v>
       </c>
@@ -4827,7 +4829,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
         <v>108</v>
       </c>
@@ -4845,7 +4847,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>38718</v>
       </c>
@@ -4865,7 +4867,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>38749</v>
       </c>
@@ -4885,7 +4887,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>38777</v>
       </c>
@@ -4905,7 +4907,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>38808</v>
       </c>
@@ -4925,7 +4927,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>38838</v>
       </c>
@@ -4945,7 +4947,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>38869</v>
       </c>
@@ -4965,7 +4967,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>38899</v>
       </c>
@@ -4985,7 +4987,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>38930</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>38961</v>
       </c>
@@ -5031,7 +5033,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>38991</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>39022</v>
       </c>
@@ -5071,7 +5073,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>39052</v>
       </c>
@@ -5091,7 +5093,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>110</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>39083</v>
       </c>
@@ -5129,7 +5131,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39114</v>
       </c>
@@ -5149,7 +5151,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>39142</v>
       </c>
@@ -5169,7 +5171,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39173</v>
       </c>
@@ -5189,7 +5191,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>39203</v>
       </c>
@@ -5209,7 +5211,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>39234</v>
       </c>
@@ -5229,7 +5231,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>39264</v>
       </c>
@@ -5255,7 +5257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>39295</v>
       </c>
@@ -5275,7 +5277,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>39326</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>39356</v>
       </c>
@@ -5321,7 +5323,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>39387</v>
       </c>
@@ -5341,7 +5343,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39417</v>
       </c>
@@ -5361,7 +5363,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>114</v>
       </c>
@@ -5379,7 +5381,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>39448</v>
       </c>
@@ -5399,7 +5401,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39479</v>
       </c>
@@ -5419,7 +5421,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39508</v>
       </c>
@@ -5443,7 +5445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>39539</v>
       </c>
@@ -5463,7 +5465,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>39569</v>
       </c>
@@ -5483,7 +5485,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>39600</v>
       </c>
@@ -5503,7 +5505,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>39630</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>39661</v>
       </c>
@@ -5547,7 +5549,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>39692</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>39722</v>
       </c>
@@ -5593,7 +5595,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>39753</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39783</v>
       </c>
@@ -5639,7 +5641,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="48" t="s">
         <v>120</v>
       </c>
@@ -5657,7 +5659,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>39814</v>
       </c>
@@ -5677,7 +5679,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>39845</v>
       </c>
@@ -5697,7 +5699,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>39873</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>39904</v>
       </c>
@@ -5741,7 +5743,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>39934</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>39965</v>
       </c>
@@ -5789,7 +5791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>39995</v>
       </c>
@@ -5809,7 +5811,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>40026</v>
       </c>
@@ -5829,7 +5831,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>40057</v>
       </c>
@@ -5849,7 +5851,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>40087</v>
       </c>
@@ -5869,7 +5871,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>40118</v>
       </c>
@@ -5889,7 +5891,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>40148</v>
       </c>
@@ -5913,7 +5915,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>124</v>
       </c>
@@ -5931,7 +5933,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>40179</v>
       </c>
@@ -5951,7 +5953,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>40210</v>
       </c>
@@ -5971,7 +5973,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>40238</v>
       </c>
@@ -5991,7 +5993,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>40269</v>
       </c>
@@ -6011,7 +6013,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>40299</v>
       </c>
@@ -6031,7 +6033,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>40330</v>
       </c>
@@ -6051,7 +6053,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>40360</v>
       </c>
@@ -6071,7 +6073,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40391</v>
       </c>
@@ -6091,7 +6093,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>40422</v>
       </c>
@@ -6111,7 +6113,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>40452</v>
       </c>
@@ -6131,7 +6133,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>40483</v>
       </c>
@@ -6151,7 +6153,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>40513</v>
       </c>
@@ -6175,7 +6177,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>125</v>
       </c>
@@ -6193,7 +6195,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>40544</v>
       </c>
@@ -6213,7 +6215,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>40575</v>
       </c>
@@ -6233,7 +6235,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>40603</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>40634</v>
       </c>
@@ -6277,7 +6279,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>40664</v>
       </c>
@@ -6297,7 +6299,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>40695</v>
       </c>
@@ -6317,7 +6319,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>40725</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>40756</v>
       </c>
@@ -6363,7 +6365,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>40787</v>
       </c>
@@ -6383,7 +6385,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>40817</v>
       </c>
@@ -6403,7 +6405,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>40848</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>40878</v>
       </c>
@@ -6449,7 +6451,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>126</v>
       </c>
@@ -6467,7 +6469,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40909</v>
       </c>
@@ -6487,7 +6489,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>40940</v>
       </c>
@@ -6507,7 +6509,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>40969</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>41000</v>
       </c>
@@ -6551,7 +6553,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>41030</v>
       </c>
@@ -6571,7 +6573,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>41061</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>41091</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>41122</v>
       </c>
@@ -6635,7 +6637,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>41153</v>
       </c>
@@ -6655,7 +6657,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>41183</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>102</v>
@@ -6698,7 +6700,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>41214</v>
       </c>
@@ -6718,7 +6720,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>41244</v>
       </c>
@@ -6738,7 +6740,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
         <v>127</v>
       </c>
@@ -6756,7 +6758,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>41275</v>
       </c>
@@ -6776,7 +6778,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>41306</v>
       </c>
@@ -6796,7 +6798,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>41334</v>
       </c>
@@ -6816,7 +6818,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>41365</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>41395</v>
       </c>
@@ -6860,7 +6862,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>41426</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>41456</v>
       </c>
@@ -6904,7 +6906,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>41487</v>
       </c>
@@ -6924,7 +6926,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>41518</v>
       </c>
@@ -6944,7 +6946,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41548</v>
       </c>
@@ -6964,7 +6966,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41579</v>
       </c>
@@ -6984,7 +6986,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41609</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>128</v>
       </c>
@@ -7028,7 +7030,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>41640</v>
       </c>
@@ -7048,7 +7050,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>41671</v>
       </c>
@@ -7068,7 +7070,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>41699</v>
       </c>
@@ -7092,7 +7094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41730</v>
       </c>
@@ -7112,7 +7114,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>41760</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>41791</v>
       </c>
@@ -7160,7 +7162,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>41821</v>
       </c>
@@ -7180,7 +7182,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>41852</v>
       </c>
@@ -7200,7 +7202,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>41883</v>
       </c>
@@ -7220,7 +7222,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>41913</v>
       </c>
@@ -7240,7 +7242,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>41944</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>41974</v>
       </c>
@@ -7286,7 +7288,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>129</v>
       </c>
@@ -7304,7 +7306,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>42005</v>
       </c>
@@ -7324,7 +7326,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>42036</v>
       </c>
@@ -7344,7 +7346,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>42064</v>
       </c>
@@ -7368,7 +7370,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>42095</v>
       </c>
@@ -7388,7 +7390,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>42125</v>
       </c>
@@ -7412,7 +7414,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>42156</v>
       </c>
@@ -7432,7 +7434,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>42186</v>
       </c>
@@ -7456,7 +7458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>42217</v>
       </c>
@@ -7476,7 +7478,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>42248</v>
       </c>
@@ -7496,7 +7498,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>42278</v>
       </c>
@@ -7520,7 +7522,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>42309</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>42339</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>150</v>
@@ -7589,7 +7591,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="48" t="s">
         <v>130</v>
       </c>
@@ -7607,7 +7609,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>42370</v>
       </c>
@@ -7631,7 +7633,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>42401</v>
       </c>
@@ -7655,7 +7657,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>42430</v>
       </c>
@@ -7675,7 +7677,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>42461</v>
       </c>
@@ -7695,7 +7697,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>42491</v>
       </c>
@@ -7715,7 +7717,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>42522</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>42552</v>
       </c>
@@ -7759,7 +7761,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>42583</v>
       </c>
@@ -7779,7 +7781,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42614</v>
       </c>
@@ -7799,7 +7801,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>42644</v>
       </c>
@@ -7819,7 +7821,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42675</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>102</v>
@@ -7862,7 +7864,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42705</v>
       </c>
@@ -7882,7 +7884,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>131</v>
       </c>
@@ -7900,7 +7902,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>42736</v>
       </c>
@@ -7920,7 +7922,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>42767</v>
       </c>
@@ -7940,7 +7942,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>42795</v>
       </c>
@@ -7960,7 +7962,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>42826</v>
       </c>
@@ -7980,7 +7982,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>42856</v>
       </c>
@@ -8000,7 +8002,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42887</v>
       </c>
@@ -8020,7 +8022,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>42917</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42948</v>
       </c>
@@ -8066,7 +8068,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>42979</v>
       </c>
@@ -8086,7 +8088,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>43009</v>
       </c>
@@ -8106,7 +8108,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>43040</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>51</v>
@@ -8149,7 +8151,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>43070</v>
       </c>
@@ -8169,7 +8171,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="48" t="s">
         <v>44</v>
       </c>
@@ -8191,7 +8193,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8211,7 +8213,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8231,7 +8233,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -8251,7 +8253,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -8271,7 +8273,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43221</v>
       </c>
@@ -8291,7 +8293,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43313</v>
       </c>
@@ -8359,7 +8361,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43344</v>
       </c>
@@ -8379,7 +8381,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43374</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43405</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43435</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>45</v>
@@ -8477,7 +8479,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
         <v>50</v>
       </c>
@@ -8495,7 +8497,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43466</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43497</v>
       </c>
@@ -8541,7 +8543,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43525</v>
       </c>
@@ -8561,7 +8563,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43556</v>
       </c>
@@ -8581,7 +8583,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43586</v>
       </c>
@@ -8601,7 +8603,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43617</v>
       </c>
@@ -8621,7 +8623,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43647</v>
       </c>
@@ -8645,7 +8647,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>52</v>
@@ -8662,7 +8664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43678</v>
       </c>
@@ -8682,7 +8684,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43709</v>
       </c>
@@ -8702,7 +8704,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43739</v>
       </c>
@@ -8722,7 +8724,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43770</v>
       </c>
@@ -8742,7 +8744,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43800</v>
       </c>
@@ -8762,7 +8764,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>55</v>
       </c>
@@ -8780,7 +8782,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -8800,7 +8802,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43862</v>
       </c>
@@ -8820,7 +8822,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43891</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43922</v>
       </c>
@@ -8864,7 +8866,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43952</v>
       </c>
@@ -8884,7 +8886,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43983</v>
       </c>
@@ -8904,7 +8906,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44013</v>
       </c>
@@ -8924,7 +8926,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44044</v>
       </c>
@@ -8944,7 +8946,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44075</v>
       </c>
@@ -8964,7 +8966,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44105</v>
       </c>
@@ -8984,7 +8986,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44136</v>
       </c>
@@ -9004,7 +9006,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44166</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>59</v>
       </c>
@@ -9048,7 +9050,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9068,7 +9070,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -9088,7 +9090,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -9108,7 +9110,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -9128,7 +9130,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -9148,7 +9150,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -9168,7 +9170,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -9188,7 +9190,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -9208,7 +9210,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -9228,7 +9230,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -9248,7 +9250,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -9274,7 +9276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -9294,7 +9296,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>60</v>
       </c>
@@ -9312,7 +9314,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -9332,7 +9334,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -9352,7 +9354,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -9372,7 +9374,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -9392,7 +9394,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -9412,7 +9414,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44743</v>
       </c>
@@ -9458,7 +9460,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44774</v>
       </c>
@@ -9482,7 +9484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44805</v>
       </c>
@@ -9502,7 +9504,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44835</v>
       </c>
@@ -9522,7 +9524,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44866</v>
       </c>
@@ -9542,7 +9544,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44896</v>
       </c>
@@ -9566,7 +9568,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
         <v>158</v>
       </c>
@@ -9584,7 +9586,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44957</v>
       </c>
@@ -9604,7 +9606,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44985</v>
       </c>
@@ -9624,7 +9626,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>45016</v>
       </c>
@@ -9644,7 +9646,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45046</v>
       </c>
@@ -9664,7 +9666,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45077</v>
       </c>
@@ -9684,7 +9686,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45107</v>
       </c>
@@ -9708,29 +9710,33 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45138</v>
       </c>
       <c r="B394" s="20"/>
-      <c r="C394" s="13"/>
+      <c r="C394" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D394" s="39"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45169</v>
       </c>
-      <c r="B395" s="20"/>
+      <c r="B395" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
       <c r="E395" s="9"/>
@@ -9742,9 +9748,11 @@
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
-      <c r="K395" s="20"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K395" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45199</v>
       </c>
@@ -9762,7 +9770,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45230</v>
       </c>
@@ -9780,7 +9788,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45260</v>
       </c>
@@ -9798,7 +9806,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45291</v>
       </c>
@@ -9816,7 +9824,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9832,7 +9840,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9848,7 +9856,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9864,7 +9872,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9880,7 +9888,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -9896,7 +9904,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -9912,7 +9920,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9928,7 +9936,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9944,7 +9952,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9960,7 +9968,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9976,7 +9984,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9992,7 +10000,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10008,7 +10016,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10024,7 +10032,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10040,7 +10048,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10056,7 +10064,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10072,7 +10080,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10088,7 +10096,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10104,7 +10112,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10120,7 +10128,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10136,7 +10144,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10152,7 +10160,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10168,7 +10176,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10184,7 +10192,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10200,7 +10208,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10216,7 +10224,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10232,7 +10240,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10248,7 +10256,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10264,7 +10272,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10280,7 +10288,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10296,7 +10304,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10312,7 +10320,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10328,7 +10336,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10344,7 +10352,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10360,7 +10368,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10376,7 +10384,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10392,7 +10400,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10408,7 +10416,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10424,7 +10432,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10440,7 +10448,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10456,7 +10464,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10472,7 +10480,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
       <c r="B441" s="15"/>
       <c r="C441" s="42"/>
@@ -10503,10 +10511,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10529,28 +10537,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -10563,7 +10571,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10592,7 +10600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.75800000000000001</v>
       </c>
@@ -10622,17 +10630,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10653,7 +10661,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10680,7 +10688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10706,7 +10714,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10732,7 +10740,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10758,7 +10766,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10784,7 +10792,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10810,7 +10818,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10836,7 +10844,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10862,7 +10870,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10882,7 +10890,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10902,7 +10910,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10922,7 +10930,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10943,7 +10951,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10964,7 +10972,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10985,7 +10993,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11006,7 +11014,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11027,7 +11035,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11048,7 +11056,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11069,7 +11077,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11090,7 +11098,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11111,7 +11119,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11132,7 +11140,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11153,7 +11161,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11174,7 +11182,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11195,7 +11203,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11216,7 +11224,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11237,7 +11245,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11258,7 +11266,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11279,7 +11287,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11300,7 +11308,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11321,7 +11329,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11342,7 +11350,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11351,7 +11359,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11360,7 +11368,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11369,7 +11377,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11378,7 +11386,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11387,7 +11395,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11396,7 +11404,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11405,7 +11413,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11414,7 +11422,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11423,7 +11431,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11432,7 +11440,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11441,7 +11449,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11450,7 +11458,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11459,7 +11467,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11468,7 +11476,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11477,7 +11485,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11486,7 +11494,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11495,7 +11503,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11504,7 +11512,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11513,7 +11521,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11522,7 +11530,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11531,7 +11539,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11540,7 +11548,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11549,7 +11557,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11558,7 +11566,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11567,7 +11575,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11576,7 +11584,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11585,7 +11593,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11594,7 +11602,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11603,7 +11611,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
